--- a/Telecom-Media.xlsx
+++ b/Telecom-Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0695C73-53FB-4188-A495-DD3B528363DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B7A82A-51F5-A340-AC7E-7A4CB0C58176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="315" windowWidth="33330" windowHeight="20340" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
+    <workbookView xWindow="-40080" yWindow="-15480" windowWidth="21020" windowHeight="13740" xr2:uid="{955744E3-B0A7-4B9E-8695-D2DFA826D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Telecom" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -480,9 +480,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -520,7 +520,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -626,7 +626,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -768,7 +768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -779,22 +779,23 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="7" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -823,7 +824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -858,7 +859,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -894,7 +895,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -908,7 +909,7 @@
         <v>182710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -920,7 +921,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -934,7 +935,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -949,7 +950,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -961,7 +962,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -975,7 +976,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -987,7 +988,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -999,7 +1000,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1012,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1024,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1035,7 +1036,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1075,7 +1076,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>54843.333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1131,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1157,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1168,7 +1169,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +1181,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1221,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1261,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1311,16 +1312,16 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1377,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1393,7 @@
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1409,7 @@
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1425,7 @@
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1441,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1457,7 @@
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1473,7 @@
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1488,7 +1489,7 @@
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1505,7 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1520,7 +1521,7 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
